--- a/data/trans_bre/P10_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>-2,25%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 3,68</t>
+          <t>-7,31; 3,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,99; 2,35</t>
+          <t>-7,63; 2,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 3,99</t>
+          <t>-7,57; 4,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 2,5</t>
+          <t>-7,84; 2,92</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,1%</t>
+          <t>0,45%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 14,68</t>
+          <t>-4,41; 12,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 11,9</t>
+          <t>-5,62; 14,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 18,45</t>
+          <t>-4,64; 15,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 14,07</t>
+          <t>-5,99; 17,38</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,47</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>8,57%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 9,64</t>
+          <t>-2,66; 8,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 15,79</t>
+          <t>2,18; 16,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 11,36</t>
+          <t>-2,83; 10,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 20,17</t>
+          <t>2,39; 20,83</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 6,66</t>
+          <t>-2,96; 6,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 10,3</t>
+          <t>-2,05; 10,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 7,79</t>
+          <t>-3,28; 7,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 12,64</t>
+          <t>-2,24; 12,39</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 8,87</t>
+          <t>-9,38; 8,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 10,1</t>
+          <t>-6,61; 9,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 12,11</t>
+          <t>-10,91; 10,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 13,36</t>
+          <t>-7,72; 12,39</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-14,79</t>
+          <t>-14,78</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,46</t>
+          <t>-15,52</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-24,21%</t>
+          <t>-24,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-24,36%</t>
+          <t>-22,71%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -5,65</t>
+          <t>-22,85; -4,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-27,29; -5,5</t>
+          <t>-25,6; -4,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-35,98; -9,74</t>
+          <t>-35,33; -8,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-37,95; -9,36</t>
+          <t>-35,85; -6,92</t>
         </is>
       </c>
     </row>
@@ -946,17 +946,17 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,47</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,39%</t>
+          <t>-4,38%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,89%</t>
+          <t>-2,41%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -0,58</t>
+          <t>-6,89; -0,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 0,98</t>
+          <t>-5,32; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; -0,68</t>
+          <t>-7,99; -0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,16</t>
+          <t>-6,13; 1,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P10_2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P10_2-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,83%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,25%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.737413164438129</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.224231571824464</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.01833110720390807</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.02298884098458791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,31; 3,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-7,63; 2,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,57; 4,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,84; 2,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.312942249220571</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.341984670376641</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.0757320476288125</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.0753323085323488</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.679486563902814</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.33448426720181</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.04003589696435242</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.02429999902653644</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,45%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-4,41; 12,61</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 14,01</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 15,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 17,38</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.9902443302265751</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1375858989996814</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.01076145128199554</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.001501515636906498</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,21%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>8,57%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-4.408219067894657</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.909730933838037</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04643551964438449</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.06205565173795007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,66; 8,93</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,18; 16,5</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,83; 10,61</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>2,39; 20,83</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>12.61035572997735</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.82849903357473</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1510157847591069</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1580561483078767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,07%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.885067110285389</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.000632736161705</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.03208273784465471</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.08017821542847124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 6,75</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,05; 10,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 7,99</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 12,39</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.663372760888989</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.413622416155768</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.02828158358717687</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.01606083202134305</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.926147319380483</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.49206342267736</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1060910542186669</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.2102195236820425</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,37%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-9,38; 8,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,61; 9,5</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 10,41</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,72; 12,39</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>1.558970939519555</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.864334751867848</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.0177911417587921</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.04429932580740862</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-14,78</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,52</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-24,19%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-22,71%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.958711684108916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.839159414906528</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.03280054165478385</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.02015103438664393</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-22,85; -4,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-25,6; -4,04</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-35,33; -8,4</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-35,85; -6,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.746986089328787</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.89602597276112</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.07993454678272567</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1211141982629983</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-4,38%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-2,41%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-1.105424656210241</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>1.761305123000179</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>-0.01369391190698143</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.02166251949055977</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-6,89; -0,72</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-5,32; 1,59</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,99; -0,86</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,13; 1,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-9.376057202615424</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-5.349552408530914</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.1091374070885441</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>-0.0630356346690595</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>8.04208628205927</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>11.63002508091015</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.1040897055683505</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.1547826808382159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-14.77739020822938</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-15.84560406563429</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.2419332635819811</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>-0.2335182472578802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-22.8454799915797</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-26.63003586190094</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3532771270398145</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.3598799264806031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-4.55251267296382</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-4.235596643007162</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-0.08401163519693169</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>-0.06863146840908958</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-3.708257556597305</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-2.111428417022698</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>-0.04381988320242788</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>-0.02471500006277356</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-6.894481789950626</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.740321534262685</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-0.07986128192193664</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>-0.06595474877658523</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-0.716166913366588</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1.405701467987425</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>-0.00863781751362374</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.01687270897526531</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
